--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Selplg-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Selplg-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>78.14530633333332</v>
+        <v>0.2736413333333333</v>
       </c>
       <c r="H2">
-        <v>234.435919</v>
+        <v>0.820924</v>
       </c>
       <c r="I2">
-        <v>0.9738103308619316</v>
+        <v>0.1876387849846732</v>
       </c>
       <c r="J2">
-        <v>0.9738103308619316</v>
+        <v>0.1876387849846732</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.47090666666667</v>
+        <v>2.866432</v>
       </c>
       <c r="N2">
-        <v>52.41272000000001</v>
+        <v>8.599295999999999</v>
       </c>
       <c r="O2">
-        <v>0.9803569739482672</v>
+        <v>0.9456981836489474</v>
       </c>
       <c r="P2">
-        <v>0.9803569739482673</v>
+        <v>0.9456981836489475</v>
       </c>
       <c r="Q2">
-        <v>1365.269353387742</v>
+        <v>0.7843742743893333</v>
       </c>
       <c r="R2">
-        <v>12287.42418048968</v>
+        <v>7.059368469503999</v>
       </c>
       <c r="S2">
-        <v>0.9546817491633641</v>
+        <v>0.1774496581421008</v>
       </c>
       <c r="T2">
-        <v>0.9546817491633642</v>
+        <v>0.1774496581421009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>78.14530633333332</v>
+        <v>0.2736413333333333</v>
       </c>
       <c r="H3">
-        <v>234.435919</v>
+        <v>0.820924</v>
       </c>
       <c r="I3">
-        <v>0.9738103308619316</v>
+        <v>0.1876387849846732</v>
       </c>
       <c r="J3">
-        <v>0.9738103308619316</v>
+        <v>0.1876387849846732</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.49377</v>
       </c>
       <c r="O3">
-        <v>0.009235751608129396</v>
+        <v>0.05430181635105255</v>
       </c>
       <c r="P3">
-        <v>0.009235751608129398</v>
+        <v>0.05430181635105256</v>
       </c>
       <c r="Q3">
-        <v>12.86193596940333</v>
+        <v>0.04503862705333333</v>
       </c>
       <c r="R3">
-        <v>115.75742372463</v>
+        <v>0.40534764348</v>
       </c>
       <c r="S3">
-        <v>0.008993870329271104</v>
+        <v>0.01018912684257236</v>
       </c>
       <c r="T3">
-        <v>0.008993870329271106</v>
+        <v>0.01018912684257236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>78.14530633333332</v>
+        <v>0.9293790000000001</v>
       </c>
       <c r="H4">
-        <v>234.435919</v>
+        <v>2.788137</v>
       </c>
       <c r="I4">
-        <v>0.9738103308619316</v>
+        <v>0.6372851068440097</v>
       </c>
       <c r="J4">
-        <v>0.9738103308619316</v>
+        <v>0.6372851068440097</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1854676666666667</v>
+        <v>2.866432</v>
       </c>
       <c r="N4">
-        <v>0.556403</v>
+        <v>8.599295999999999</v>
       </c>
       <c r="O4">
-        <v>0.01040727444360334</v>
+        <v>0.9456981836489474</v>
       </c>
       <c r="P4">
-        <v>0.01040727444360334</v>
+        <v>0.9456981836489475</v>
       </c>
       <c r="Q4">
-        <v>14.49342762659522</v>
+        <v>2.664001705728</v>
       </c>
       <c r="R4">
-        <v>130.440848639357</v>
+        <v>23.976015351552</v>
       </c>
       <c r="S4">
-        <v>0.01013471136929629</v>
+        <v>0.6026793680089054</v>
       </c>
       <c r="T4">
-        <v>0.01013471136929629</v>
+        <v>0.6026793680089054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>2.788137</v>
       </c>
       <c r="I5">
-        <v>0.01158148728249443</v>
+        <v>0.6372851068440097</v>
       </c>
       <c r="J5">
-        <v>0.01158148728249443</v>
+        <v>0.6372851068440097</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>17.47090666666667</v>
+        <v>0.16459</v>
       </c>
       <c r="N5">
-        <v>52.41272000000001</v>
+        <v>0.49377</v>
       </c>
       <c r="O5">
-        <v>0.9803569739482672</v>
+        <v>0.05430181635105255</v>
       </c>
       <c r="P5">
-        <v>0.9803569739482673</v>
+        <v>0.05430181635105256</v>
       </c>
       <c r="Q5">
-        <v>16.23709376696</v>
+        <v>0.15296648961</v>
       </c>
       <c r="R5">
-        <v>146.13384390264</v>
+        <v>1.37669840649</v>
       </c>
       <c r="S5">
-        <v>0.01135399182608658</v>
+        <v>0.03460573883510432</v>
       </c>
       <c r="T5">
-        <v>0.01135399182608658</v>
+        <v>0.03460573883510432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9293790000000001</v>
+        <v>0.2553206666666667</v>
       </c>
       <c r="H6">
-        <v>2.788137</v>
+        <v>0.765962</v>
       </c>
       <c r="I6">
-        <v>0.01158148728249443</v>
+        <v>0.1750761081713171</v>
       </c>
       <c r="J6">
-        <v>0.01158148728249443</v>
+        <v>0.175076108171317</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.16459</v>
+        <v>2.866432</v>
       </c>
       <c r="N6">
-        <v>0.49377</v>
+        <v>8.599295999999999</v>
       </c>
       <c r="O6">
-        <v>0.009235751608129396</v>
+        <v>0.9456981836489474</v>
       </c>
       <c r="P6">
-        <v>0.009235751608129398</v>
+        <v>0.9456981836489475</v>
       </c>
       <c r="Q6">
-        <v>0.15296648961</v>
+        <v>0.7318593291946667</v>
       </c>
       <c r="R6">
-        <v>1.37669840649</v>
+        <v>6.586733962752</v>
       </c>
       <c r="S6">
-        <v>0.0001069637397938281</v>
+        <v>0.1655691574979412</v>
       </c>
       <c r="T6">
-        <v>0.0001069637397938281</v>
+        <v>0.1655691574979412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9293790000000001</v>
+        <v>0.2553206666666667</v>
       </c>
       <c r="H7">
-        <v>2.788137</v>
+        <v>0.765962</v>
       </c>
       <c r="I7">
-        <v>0.01158148728249443</v>
+        <v>0.1750761081713171</v>
       </c>
       <c r="J7">
-        <v>0.01158148728249443</v>
+        <v>0.175076108171317</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1854676666666667</v>
+        <v>0.16459</v>
       </c>
       <c r="N7">
-        <v>0.556403</v>
+        <v>0.49377</v>
       </c>
       <c r="O7">
-        <v>0.01040727444360334</v>
+        <v>0.05430181635105255</v>
       </c>
       <c r="P7">
-        <v>0.01040727444360334</v>
+        <v>0.05430181635105256</v>
       </c>
       <c r="Q7">
-        <v>0.172369754579</v>
+        <v>0.04202322852666667</v>
       </c>
       <c r="R7">
-        <v>1.551327791211</v>
+        <v>0.37820905674</v>
       </c>
       <c r="S7">
-        <v>0.0001205317166140214</v>
+        <v>0.009506950673375869</v>
       </c>
       <c r="T7">
-        <v>0.0001205317166140214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.172262</v>
-      </c>
-      <c r="H8">
-        <v>3.516786</v>
-      </c>
-      <c r="I8">
-        <v>0.01460818185557397</v>
-      </c>
-      <c r="J8">
-        <v>0.01460818185557397</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>17.47090666666667</v>
-      </c>
-      <c r="N8">
-        <v>52.41272000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.9803569739482672</v>
-      </c>
-      <c r="P8">
-        <v>0.9803569739482673</v>
-      </c>
-      <c r="Q8">
-        <v>20.48047999088</v>
-      </c>
-      <c r="R8">
-        <v>184.32431991792</v>
-      </c>
-      <c r="S8">
-        <v>0.01432123295881648</v>
-      </c>
-      <c r="T8">
-        <v>0.01432123295881648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.172262</v>
-      </c>
-      <c r="H9">
-        <v>3.516786</v>
-      </c>
-      <c r="I9">
-        <v>0.01460818185557397</v>
-      </c>
-      <c r="J9">
-        <v>0.01460818185557397</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.16459</v>
-      </c>
-      <c r="N9">
-        <v>0.49377</v>
-      </c>
-      <c r="O9">
-        <v>0.009235751608129396</v>
-      </c>
-      <c r="P9">
-        <v>0.009235751608129398</v>
-      </c>
-      <c r="Q9">
-        <v>0.19294260258</v>
-      </c>
-      <c r="R9">
-        <v>1.73648342322</v>
-      </c>
-      <c r="S9">
-        <v>0.000134917539064464</v>
-      </c>
-      <c r="T9">
-        <v>0.000134917539064464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.172262</v>
-      </c>
-      <c r="H10">
-        <v>3.516786</v>
-      </c>
-      <c r="I10">
-        <v>0.01460818185557397</v>
-      </c>
-      <c r="J10">
-        <v>0.01460818185557397</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1854676666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.556403</v>
-      </c>
-      <c r="O10">
-        <v>0.01040727444360334</v>
-      </c>
-      <c r="P10">
-        <v>0.01040727444360334</v>
-      </c>
-      <c r="Q10">
-        <v>0.217416697862</v>
-      </c>
-      <c r="R10">
-        <v>1.956750280758</v>
-      </c>
-      <c r="S10">
-        <v>0.000152031357693025</v>
-      </c>
-      <c r="T10">
-        <v>0.000152031357693025</v>
+        <v>0.009506950673375869</v>
       </c>
     </row>
   </sheetData>
